--- a/MavenProject/src/test/java/testdata/Login.xlsx
+++ b/MavenProject/src/test/java/testdata/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkasu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumOnline\MavenProject\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC1AA58-8DC0-4AF2-9A88-23338B583B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236C3536-EE5E-44DD-98E0-CDF681D15B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="5016" windowWidth="19380" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -197,20 +197,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -219,9 +220,9 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -231,13 +232,55 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +592,7 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1"/>
@@ -561,10 +604,9 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -573,10 +615,9 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -585,33 +626,49 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"PASS"</formula>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASS">
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",D2)))</formula>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",D3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{35940FC4-3689-4BE0-A88C-171792A4E823}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -620,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473221D3-E95E-4CC7-AF84-E1A3904A9CF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
